--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Fn1-Tnfrsf11b.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Fn1-Tnfrsf11b.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T19"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -534,7 +534,7 @@
         <v>27</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E2">
         <v>2</v>
@@ -543,46 +543,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>40.73495550000001</v>
+        <v>27.043729</v>
       </c>
       <c r="H2">
-        <v>81.46991100000001</v>
+        <v>54.087458</v>
       </c>
       <c r="I2">
-        <v>0.05567871843833242</v>
+        <v>0.02651485103642245</v>
       </c>
       <c r="J2">
-        <v>0.03826666865920979</v>
+        <v>0.01793093290354402</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>0.102926</v>
+        <v>2.169947333333333</v>
       </c>
       <c r="N2">
-        <v>0.205852</v>
+        <v>6.509842000000001</v>
       </c>
       <c r="O2">
-        <v>0.03821605677617539</v>
+        <v>0.7459944226682381</v>
       </c>
       <c r="P2">
-        <v>0.02724178813968781</v>
+        <v>0.8149992037602547</v>
       </c>
       <c r="Q2">
-        <v>4.192686029793001</v>
+        <v>58.68346762693933</v>
       </c>
       <c r="R2">
-        <v>16.770744119172</v>
+        <v>352.100805761636</v>
       </c>
       <c r="S2">
-        <v>0.002127821065063996</v>
+        <v>0.0197799309910503</v>
       </c>
       <c r="T2">
-        <v>0.001042452480425824</v>
+        <v>0.01461369603906693</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,7 +596,7 @@
         <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E3">
         <v>2</v>
@@ -605,51 +605,51 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>40.73495550000001</v>
+        <v>27.043729</v>
       </c>
       <c r="H3">
-        <v>81.46991100000001</v>
+        <v>54.087458</v>
       </c>
       <c r="I3">
-        <v>0.05567871843833242</v>
+        <v>0.02651485103642245</v>
       </c>
       <c r="J3">
-        <v>0.03826666865920979</v>
+        <v>0.01793093290354402</v>
       </c>
       <c r="K3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>2.169947333333333</v>
+        <v>0.7388509999999999</v>
       </c>
       <c r="N3">
-        <v>6.509842000000001</v>
+        <v>1.477702</v>
       </c>
       <c r="O3">
-        <v>0.8056937070514454</v>
+        <v>0.2540055773317618</v>
       </c>
       <c r="P3">
-        <v>0.8614914433031574</v>
+        <v>0.1850007962397452</v>
       </c>
       <c r="Q3">
-        <v>88.39270806067701</v>
+        <v>19.981286215379</v>
       </c>
       <c r="R3">
-        <v>530.3562483640621</v>
+        <v>79.92514486151599</v>
       </c>
       <c r="S3">
-        <v>0.04485999306245371</v>
+        <v>0.006734920045372148</v>
       </c>
       <c r="T3">
-        <v>0.03296640761362635</v>
+        <v>0.003317236864477092</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B4" t="s">
         <v>26</v>
@@ -658,55 +658,55 @@
         <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>40.73495550000001</v>
+        <v>350.3919066666667</v>
       </c>
       <c r="H4">
-        <v>81.46991100000001</v>
+        <v>1051.17572</v>
       </c>
       <c r="I4">
-        <v>0.05567871843833242</v>
+        <v>0.3435395026194319</v>
       </c>
       <c r="J4">
-        <v>0.03826666865920979</v>
+        <v>0.3484830310412181</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.4203924999999999</v>
+        <v>2.169947333333333</v>
       </c>
       <c r="N4">
-        <v>0.8407849999999999</v>
+        <v>6.509842000000001</v>
       </c>
       <c r="O4">
-        <v>0.1560902361723793</v>
+        <v>0.7459944226682381</v>
       </c>
       <c r="P4">
-        <v>0.1112667685571547</v>
+        <v>0.8149992037602547</v>
       </c>
       <c r="Q4">
-        <v>17.12466978003375</v>
+        <v>760.3319834929156</v>
       </c>
       <c r="R4">
-        <v>68.49867912013499</v>
+        <v>6842.987851436241</v>
       </c>
       <c r="S4">
-        <v>0.008690904310814717</v>
+        <v>0.2562785529203168</v>
       </c>
       <c r="T4">
-        <v>0.004257808565157621</v>
+        <v>0.2840133928225528</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,7 +720,7 @@
         <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -735,45 +735,45 @@
         <v>1051.17572</v>
       </c>
       <c r="I5">
-        <v>0.4789344206933965</v>
+        <v>0.3435395026194319</v>
       </c>
       <c r="J5">
-        <v>0.4937404802104949</v>
+        <v>0.3484830310412181</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.102926</v>
+        <v>0.7388509999999999</v>
       </c>
       <c r="N5">
-        <v>0.205852</v>
+        <v>1.477702</v>
       </c>
       <c r="O5">
-        <v>0.03821605677617539</v>
+        <v>0.2540055773317618</v>
       </c>
       <c r="P5">
-        <v>0.02724178813968781</v>
+        <v>0.1850007962397452</v>
       </c>
       <c r="Q5">
-        <v>36.06443738557333</v>
+        <v>258.8874106325733</v>
       </c>
       <c r="R5">
-        <v>216.38662431344</v>
+        <v>1553.32446379544</v>
       </c>
       <c r="S5">
-        <v>0.01830298501328351</v>
+        <v>0.0872609496991151</v>
       </c>
       <c r="T5">
-        <v>0.01345037355788202</v>
+        <v>0.06446963821866521</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B6" t="s">
         <v>26</v>
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>350.3919066666667</v>
+        <v>384.09258</v>
       </c>
       <c r="H6">
-        <v>1051.17572</v>
+        <v>1152.27774</v>
       </c>
       <c r="I6">
-        <v>0.4789344206933965</v>
+        <v>0.3765811121275166</v>
       </c>
       <c r="J6">
-        <v>0.4937404802104949</v>
+        <v>0.3820001088272136</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -815,27 +815,27 @@
         <v>6.509842000000001</v>
       </c>
       <c r="O6">
-        <v>0.8056937070514454</v>
+        <v>0.7459944226682381</v>
       </c>
       <c r="P6">
-        <v>0.8614914433031574</v>
+        <v>0.8149992037602547</v>
       </c>
       <c r="Q6">
-        <v>760.3319834929156</v>
+        <v>833.4606697241201</v>
       </c>
       <c r="R6">
-        <v>6842.987851436241</v>
+        <v>7501.146027517081</v>
       </c>
       <c r="S6">
-        <v>0.3858744488429991</v>
+        <v>0.2809274093293298</v>
       </c>
       <c r="T6">
-        <v>0.4253531989137333</v>
+        <v>0.3113297845305097</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B7" t="s">
         <v>26</v>
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>350.3919066666667</v>
+        <v>384.09258</v>
       </c>
       <c r="H7">
-        <v>1051.17572</v>
+        <v>1152.27774</v>
       </c>
       <c r="I7">
-        <v>0.4789344206933965</v>
+        <v>0.3765811121275166</v>
       </c>
       <c r="J7">
-        <v>0.4937404802104949</v>
+        <v>0.3820001088272136</v>
       </c>
       <c r="K7">
         <v>2</v>
@@ -871,33 +871,33 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.4203924999999999</v>
+        <v>0.7388509999999999</v>
       </c>
       <c r="N7">
-        <v>0.8407849999999999</v>
+        <v>1.477702</v>
       </c>
       <c r="O7">
-        <v>0.1560902361723793</v>
+        <v>0.2540055773317618</v>
       </c>
       <c r="P7">
-        <v>0.1112667685571547</v>
+        <v>0.1850007962397452</v>
       </c>
       <c r="Q7">
-        <v>147.3021296233667</v>
+        <v>283.78718682558</v>
       </c>
       <c r="R7">
-        <v>883.8127777401999</v>
+        <v>1702.72312095348</v>
       </c>
       <c r="S7">
-        <v>0.07475698683711392</v>
+        <v>0.09565370279818679</v>
       </c>
       <c r="T7">
-        <v>0.05493690773887956</v>
+        <v>0.07067032429670386</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B8" t="s">
         <v>26</v>
@@ -906,60 +906,60 @@
         <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>243.8287033333334</v>
+        <v>16.362698</v>
       </c>
       <c r="H8">
-        <v>731.4861100000001</v>
+        <v>32.725396</v>
       </c>
       <c r="I8">
-        <v>0.3332781281688242</v>
+        <v>0.01604270254386766</v>
       </c>
       <c r="J8">
-        <v>0.3435812836494235</v>
+        <v>0.01084903786600413</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="M8">
-        <v>0.102926</v>
+        <v>2.169947333333333</v>
       </c>
       <c r="N8">
-        <v>0.205852</v>
+        <v>6.509842000000001</v>
       </c>
       <c r="O8">
-        <v>0.03821605677617539</v>
+        <v>0.7459944226682381</v>
       </c>
       <c r="P8">
-        <v>0.02724178813968781</v>
+        <v>0.8149992037602547</v>
       </c>
       <c r="Q8">
-        <v>25.09631311928667</v>
+        <v>35.50619289123867</v>
       </c>
       <c r="R8">
-        <v>150.57787871572</v>
+        <v>213.037157347432</v>
       </c>
       <c r="S8">
-        <v>0.01273657586835725</v>
+        <v>0.01196776662225083</v>
       </c>
       <c r="T8">
-        <v>0.009359768537939576</v>
+        <v>0.00884195722235822</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B9" t="s">
         <v>26</v>
@@ -968,60 +968,60 @@
         <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>243.8287033333334</v>
+        <v>16.362698</v>
       </c>
       <c r="H9">
-        <v>731.4861100000001</v>
+        <v>32.725396</v>
       </c>
       <c r="I9">
-        <v>0.3332781281688242</v>
+        <v>0.01604270254386766</v>
       </c>
       <c r="J9">
-        <v>0.3435812836494235</v>
+        <v>0.01084903786600413</v>
       </c>
       <c r="K9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>2.169947333333333</v>
+        <v>0.7388509999999999</v>
       </c>
       <c r="N9">
-        <v>6.509842000000001</v>
+        <v>1.477702</v>
       </c>
       <c r="O9">
-        <v>0.8056937070514454</v>
+        <v>0.2540055773317618</v>
       </c>
       <c r="P9">
-        <v>0.8614914433031574</v>
+        <v>0.1850007962397452</v>
       </c>
       <c r="Q9">
-        <v>529.0954445882912</v>
+        <v>12.089595779998</v>
       </c>
       <c r="R9">
-        <v>4761.859001294621</v>
+        <v>48.358383119992</v>
       </c>
       <c r="S9">
-        <v>0.2685200905635067</v>
+        <v>0.00407493592161683</v>
       </c>
       <c r="T9">
-        <v>0.2959923359430933</v>
+        <v>0.002007080643645911</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B10" t="s">
         <v>26</v>
@@ -1030,7 +1030,7 @@
         <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1039,51 +1039,51 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>243.8287033333334</v>
+        <v>43.50447033333333</v>
       </c>
       <c r="H10">
-        <v>731.4861100000001</v>
+        <v>130.513411</v>
       </c>
       <c r="I10">
-        <v>0.3332781281688242</v>
+        <v>0.04265367953904556</v>
       </c>
       <c r="J10">
-        <v>0.3435812836494235</v>
+        <v>0.04326746536421927</v>
       </c>
       <c r="K10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.4203924999999999</v>
+        <v>2.169947333333333</v>
       </c>
       <c r="N10">
-        <v>0.8407849999999999</v>
+        <v>6.509842000000001</v>
       </c>
       <c r="O10">
-        <v>0.1560902361723793</v>
+        <v>0.7459944226682381</v>
       </c>
       <c r="P10">
-        <v>0.1112667685571547</v>
+        <v>0.8149992037602547</v>
       </c>
       <c r="Q10">
-        <v>102.5037581660583</v>
+        <v>94.40240938789577</v>
       </c>
       <c r="R10">
-        <v>615.02254899635</v>
+        <v>849.6216844910621</v>
       </c>
       <c r="S10">
-        <v>0.05202146173696028</v>
+        <v>0.03181940704240633</v>
       </c>
       <c r="T10">
-        <v>0.03822917916839052</v>
+        <v>0.03526294982056311</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B11" t="s">
         <v>26</v>
@@ -1092,60 +1092,60 @@
         <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>43.50447033333333</v>
+      </c>
+      <c r="H11">
+        <v>130.513411</v>
+      </c>
+      <c r="I11">
+        <v>0.04265367953904556</v>
+      </c>
+      <c r="J11">
+        <v>0.04326746536421927</v>
+      </c>
+      <c r="K11">
         <v>2</v>
       </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-      <c r="G11">
-        <v>25.082339</v>
-      </c>
-      <c r="H11">
-        <v>50.16467799999999</v>
-      </c>
-      <c r="I11">
-        <v>0.03428388404538221</v>
-      </c>
-      <c r="J11">
-        <v>0.02356250409334497</v>
-      </c>
-      <c r="K11">
-        <v>1</v>
-      </c>
       <c r="L11">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="M11">
-        <v>0.102926</v>
+        <v>0.7388509999999999</v>
       </c>
       <c r="N11">
-        <v>0.205852</v>
+        <v>1.477702</v>
       </c>
       <c r="O11">
-        <v>0.03821605677617539</v>
+        <v>0.2540055773317618</v>
       </c>
       <c r="P11">
-        <v>0.02724178813968781</v>
+        <v>0.1850007962397452</v>
       </c>
       <c r="Q11">
-        <v>2.581624823914</v>
+        <v>32.14332141025366</v>
       </c>
       <c r="R11">
-        <v>10.326499295656</v>
+        <v>192.859928461522</v>
       </c>
       <c r="S11">
-        <v>0.00131019485918614</v>
+        <v>0.01083427249663922</v>
       </c>
       <c r="T11">
-        <v>0.0006418847445514304</v>
+        <v>0.008004515543656164</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B12" t="s">
         <v>26</v>
@@ -1157,22 +1157,22 @@
         <v>21</v>
       </c>
       <c r="E12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>25.082339</v>
+        <v>198.5510966666667</v>
       </c>
       <c r="H12">
-        <v>50.16467799999999</v>
+        <v>595.65329</v>
       </c>
       <c r="I12">
-        <v>0.03428388404538221</v>
+        <v>0.1946681521337158</v>
       </c>
       <c r="J12">
-        <v>0.02356250409334497</v>
+        <v>0.1974694239978009</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1187,27 +1187,27 @@
         <v>6.509842000000001</v>
       </c>
       <c r="O12">
-        <v>0.8056937070514454</v>
+        <v>0.7459944226682381</v>
       </c>
       <c r="P12">
-        <v>0.8614914433031574</v>
+        <v>0.8149992037602547</v>
       </c>
       <c r="Q12">
-        <v>54.42735462681267</v>
+        <v>430.8454227422422</v>
       </c>
       <c r="R12">
-        <v>326.564127760876</v>
+        <v>3877.60880468018</v>
       </c>
       <c r="S12">
-        <v>0.02762230962864589</v>
+        <v>0.1452213557628841</v>
       </c>
       <c r="T12">
-        <v>0.02029889565921231</v>
+        <v>0.1609374233252039</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B13" t="s">
         <v>26</v>
@@ -1219,22 +1219,22 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>25.082339</v>
+        <v>198.5510966666667</v>
       </c>
       <c r="H13">
-        <v>50.16467799999999</v>
+        <v>595.65329</v>
       </c>
       <c r="I13">
-        <v>0.03428388404538221</v>
+        <v>0.1946681521337158</v>
       </c>
       <c r="J13">
-        <v>0.02356250409334497</v>
+        <v>0.1974694239978009</v>
       </c>
       <c r="K13">
         <v>2</v>
@@ -1243,400 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.4203924999999999</v>
+        <v>0.7388509999999999</v>
       </c>
       <c r="N13">
-        <v>0.8407849999999999</v>
+        <v>1.477702</v>
       </c>
       <c r="O13">
-        <v>0.1560902361723793</v>
+        <v>0.2540055773317618</v>
       </c>
       <c r="P13">
-        <v>0.1112667685571547</v>
+        <v>0.1850007962397452</v>
       </c>
       <c r="Q13">
-        <v>10.5444271980575</v>
+        <v>146.6996763232633</v>
       </c>
       <c r="R13">
-        <v>42.17770879222999</v>
+        <v>880.1980579395798</v>
       </c>
       <c r="S13">
-        <v>0.005351379557550175</v>
+        <v>0.04944679637083171</v>
       </c>
       <c r="T13">
-        <v>0.002621723689581225</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20">
-      <c r="A14" t="s">
-        <v>24</v>
-      </c>
-      <c r="B14" t="s">
-        <v>26</v>
-      </c>
-      <c r="C14" t="s">
-        <v>27</v>
-      </c>
-      <c r="D14" t="s">
-        <v>20</v>
-      </c>
-      <c r="E14">
-        <v>3</v>
-      </c>
-      <c r="F14">
-        <v>1</v>
-      </c>
-      <c r="G14">
-        <v>22.832077</v>
-      </c>
-      <c r="H14">
-        <v>68.49623099999999</v>
-      </c>
-      <c r="I14">
-        <v>0.03120810544755168</v>
-      </c>
-      <c r="J14">
-        <v>0.03217289111905</v>
-      </c>
-      <c r="K14">
-        <v>1</v>
-      </c>
-      <c r="L14">
-        <v>0.5</v>
-      </c>
-      <c r="M14">
-        <v>0.102926</v>
-      </c>
-      <c r="N14">
-        <v>0.205852</v>
-      </c>
-      <c r="O14">
-        <v>0.03821605677617539</v>
-      </c>
-      <c r="P14">
-        <v>0.02724178813968781</v>
-      </c>
-      <c r="Q14">
-        <v>2.350014357302</v>
-      </c>
-      <c r="R14">
-        <v>14.100086143812</v>
-      </c>
-      <c r="S14">
-        <v>0.001192650729660504</v>
-      </c>
-      <c r="T14">
-        <v>0.0008764470837064035</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20">
-      <c r="A15" t="s">
-        <v>24</v>
-      </c>
-      <c r="B15" t="s">
-        <v>26</v>
-      </c>
-      <c r="C15" t="s">
-        <v>27</v>
-      </c>
-      <c r="D15" t="s">
-        <v>21</v>
-      </c>
-      <c r="E15">
-        <v>3</v>
-      </c>
-      <c r="F15">
-        <v>1</v>
-      </c>
-      <c r="G15">
-        <v>22.832077</v>
-      </c>
-      <c r="H15">
-        <v>68.49623099999999</v>
-      </c>
-      <c r="I15">
-        <v>0.03120810544755168</v>
-      </c>
-      <c r="J15">
-        <v>0.03217289111905</v>
-      </c>
-      <c r="K15">
-        <v>3</v>
-      </c>
-      <c r="L15">
-        <v>1</v>
-      </c>
-      <c r="M15">
-        <v>2.169947333333333</v>
-      </c>
-      <c r="N15">
-        <v>6.509842000000001</v>
-      </c>
-      <c r="O15">
-        <v>0.8056937070514454</v>
-      </c>
-      <c r="P15">
-        <v>0.8614914433031574</v>
-      </c>
-      <c r="Q15">
-        <v>49.54440460061133</v>
-      </c>
-      <c r="R15">
-        <v>445.899641405502</v>
-      </c>
-      <c r="S15">
-        <v>0.02514417416809032</v>
-      </c>
-      <c r="T15">
-        <v>0.02771667040538572</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20">
-      <c r="A16" t="s">
-        <v>24</v>
-      </c>
-      <c r="B16" t="s">
-        <v>26</v>
-      </c>
-      <c r="C16" t="s">
-        <v>27</v>
-      </c>
-      <c r="D16" t="s">
-        <v>23</v>
-      </c>
-      <c r="E16">
-        <v>3</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="G16">
-        <v>22.832077</v>
-      </c>
-      <c r="H16">
-        <v>68.49623099999999</v>
-      </c>
-      <c r="I16">
-        <v>0.03120810544755168</v>
-      </c>
-      <c r="J16">
-        <v>0.03217289111905</v>
-      </c>
-      <c r="K16">
-        <v>2</v>
-      </c>
-      <c r="L16">
-        <v>1</v>
-      </c>
-      <c r="M16">
-        <v>0.4203924999999999</v>
-      </c>
-      <c r="N16">
-        <v>0.8407849999999999</v>
-      </c>
-      <c r="O16">
-        <v>0.1560902361723793</v>
-      </c>
-      <c r="P16">
-        <v>0.1112667685571547</v>
-      </c>
-      <c r="Q16">
-        <v>9.598433930222498</v>
-      </c>
-      <c r="R16">
-        <v>57.59060358133499</v>
-      </c>
-      <c r="S16">
-        <v>0.004871280549800859</v>
-      </c>
-      <c r="T16">
-        <v>0.003579773629957874</v>
-      </c>
-    </row>
-    <row r="17" spans="1:20">
-      <c r="A17" t="s">
-        <v>25</v>
-      </c>
-      <c r="B17" t="s">
-        <v>26</v>
-      </c>
-      <c r="C17" t="s">
-        <v>27</v>
-      </c>
-      <c r="D17" t="s">
-        <v>20</v>
-      </c>
-      <c r="E17">
-        <v>3</v>
-      </c>
-      <c r="F17">
-        <v>1</v>
-      </c>
-      <c r="G17">
-        <v>48.737294</v>
-      </c>
-      <c r="H17">
-        <v>146.211882</v>
-      </c>
-      <c r="I17">
-        <v>0.06661674320651284</v>
-      </c>
-      <c r="J17">
-        <v>0.06867617226847689</v>
-      </c>
-      <c r="K17">
-        <v>1</v>
-      </c>
-      <c r="L17">
-        <v>0.5</v>
-      </c>
-      <c r="M17">
-        <v>0.102926</v>
-      </c>
-      <c r="N17">
-        <v>0.205852</v>
-      </c>
-      <c r="O17">
-        <v>0.03821605677617539</v>
-      </c>
-      <c r="P17">
-        <v>0.02724178813968781</v>
-      </c>
-      <c r="Q17">
-        <v>5.016334722244</v>
-      </c>
-      <c r="R17">
-        <v>30.098008333464</v>
-      </c>
-      <c r="S17">
-        <v>0.002545829240623991</v>
-      </c>
-      <c r="T17">
-        <v>0.00187086173518255</v>
-      </c>
-    </row>
-    <row r="18" spans="1:20">
-      <c r="A18" t="s">
-        <v>25</v>
-      </c>
-      <c r="B18" t="s">
-        <v>26</v>
-      </c>
-      <c r="C18" t="s">
-        <v>27</v>
-      </c>
-      <c r="D18" t="s">
-        <v>21</v>
-      </c>
-      <c r="E18">
-        <v>3</v>
-      </c>
-      <c r="F18">
-        <v>1</v>
-      </c>
-      <c r="G18">
-        <v>48.737294</v>
-      </c>
-      <c r="H18">
-        <v>146.211882</v>
-      </c>
-      <c r="I18">
-        <v>0.06661674320651284</v>
-      </c>
-      <c r="J18">
-        <v>0.06867617226847689</v>
-      </c>
-      <c r="K18">
-        <v>3</v>
-      </c>
-      <c r="L18">
-        <v>1</v>
-      </c>
-      <c r="M18">
-        <v>2.169947333333333</v>
-      </c>
-      <c r="N18">
-        <v>6.509842000000001</v>
-      </c>
-      <c r="O18">
-        <v>0.8056937070514454</v>
-      </c>
-      <c r="P18">
-        <v>0.8614914433031574</v>
-      </c>
-      <c r="Q18">
-        <v>105.7573611491827</v>
-      </c>
-      <c r="R18">
-        <v>951.8162503426441</v>
-      </c>
-      <c r="S18">
-        <v>0.05367269078574952</v>
-      </c>
-      <c r="T18">
-        <v>0.05916393476810643</v>
-      </c>
-    </row>
-    <row r="19" spans="1:20">
-      <c r="A19" t="s">
-        <v>25</v>
-      </c>
-      <c r="B19" t="s">
-        <v>26</v>
-      </c>
-      <c r="C19" t="s">
-        <v>27</v>
-      </c>
-      <c r="D19" t="s">
-        <v>23</v>
-      </c>
-      <c r="E19">
-        <v>3</v>
-      </c>
-      <c r="F19">
-        <v>1</v>
-      </c>
-      <c r="G19">
-        <v>48.737294</v>
-      </c>
-      <c r="H19">
-        <v>146.211882</v>
-      </c>
-      <c r="I19">
-        <v>0.06661674320651284</v>
-      </c>
-      <c r="J19">
-        <v>0.06867617226847689</v>
-      </c>
-      <c r="K19">
-        <v>2</v>
-      </c>
-      <c r="L19">
-        <v>1</v>
-      </c>
-      <c r="M19">
-        <v>0.4203924999999999</v>
-      </c>
-      <c r="N19">
-        <v>0.8407849999999999</v>
-      </c>
-      <c r="O19">
-        <v>0.1560902361723793</v>
-      </c>
-      <c r="P19">
-        <v>0.1112667685571547</v>
-      </c>
-      <c r="Q19">
-        <v>20.488792867895</v>
-      </c>
-      <c r="R19">
-        <v>122.93275720737</v>
-      </c>
-      <c r="S19">
-        <v>0.01039822318013933</v>
-      </c>
-      <c r="T19">
-        <v>0.007641375765187903</v>
+        <v>0.03653200067259703</v>
       </c>
     </row>
   </sheetData>
